--- a/RBD - Dummy/MP_SalesSegments.xlsx
+++ b/RBD - Dummy/MP_SalesSegments.xlsx
@@ -1205,7 +1205,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="n">
-        <v>744014.754027862</v>
+        <v>313890.3687001493</v>
       </c>
       <c r="B2" t="s">
         <v>32</v>
@@ -1220,7 +1220,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="n">
-        <v>744091.0543975284</v>
+        <v>519664.2895199998</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
@@ -1235,7 +1235,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="n">
-        <v>926288.9728504742</v>
+        <v>558008.8446675</v>
       </c>
       <c r="B4" t="s">
         <v>30</v>
@@ -1250,7 +1250,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="n">
-        <v>263222.0981740615</v>
+        <v>167476.3366272677</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
@@ -1265,7 +1265,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="n">
-        <v>5245429.56108206</v>
+        <v>2140759.647799437</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
@@ -1280,7 +1280,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="n">
-        <v>1606876.827699043</v>
+        <v>722730.0476822234</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
@@ -1295,7 +1295,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="n">
-        <v>7866186.637952652</v>
+        <v>2360566.866950211</v>
       </c>
       <c r="B8" t="s">
         <v>17</v>
@@ -1310,7 +1310,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="n">
-        <v>817040.0908149014</v>
+        <v>259355.1430658761</v>
       </c>
       <c r="B9" t="s">
         <v>20</v>
@@ -1325,7 +1325,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="n">
-        <v>5079024.049112274</v>
+        <v>1984898.369236777</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
@@ -1340,7 +1340,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="n">
-        <v>5787100.119057392</v>
+        <v>1851373.981142008</v>
       </c>
       <c r="B11" t="s">
         <v>27</v>
@@ -1355,7 +1355,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="n">
-        <v>148618.2550130614</v>
+        <v>86757.39937499999</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1370,7 +1370,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="n">
-        <v>478718.5561037704</v>
+        <v>579472.8139599999</v>
       </c>
       <c r="B13" t="s">
         <v>37</v>
@@ -1385,7 +1385,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="n">
-        <v>485025.3420888078</v>
+        <v>291621.7207783903</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
@@ -1400,7 +1400,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="n">
-        <v>566047.1781581114</v>
+        <v>339632.704</v>
       </c>
       <c r="B15" t="s">
         <v>28</v>
@@ -1415,7 +1415,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="n">
-        <v>482485.6208382372</v>
+        <v>252779.12419</v>
       </c>
       <c r="B16" t="s">
         <v>13</v>
@@ -1430,7 +1430,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="n">
-        <v>773637.4205149174</v>
+        <v>456703.1426871222</v>
       </c>
       <c r="B17" t="s">
         <v>22</v>
@@ -1445,7 +1445,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="n">
-        <v>2800394.332852282</v>
+        <v>741984.7203741666</v>
       </c>
       <c r="B18" t="s">
         <v>33</v>
@@ -1460,7 +1460,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="n">
-        <v>11152.98150894179</v>
+        <v>7132.712044</v>
       </c>
       <c r="B19" t="s">
         <v>23</v>
@@ -1475,7 +1475,7 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="n">
-        <v>5979277.138381172</v>
+        <v>2267307.723960656</v>
       </c>
       <c r="B20" t="s">
         <v>14</v>
@@ -1490,7 +1490,7 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="n">
-        <v>338061.6178753599</v>
+        <v>151313.1390283999</v>
       </c>
       <c r="B21" t="s">
         <v>21</v>
@@ -1505,7 +1505,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="n">
-        <v>472723.1340365013</v>
+        <v>235832.6611080666</v>
       </c>
       <c r="B22" t="s">
         <v>16</v>
@@ -1520,7 +1520,7 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="n">
-        <v>7459582.134813053</v>
+        <v>3080983.469449091</v>
       </c>
       <c r="B23" t="s">
         <v>10</v>
@@ -1535,7 +1535,7 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="n">
-        <v>15977108.85277729</v>
+        <v>7276299.300801496</v>
       </c>
       <c r="B24" t="s">
         <v>38</v>
@@ -1550,7 +1550,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="n">
-        <v>41015227.27718226</v>
+        <v>18670865.11195</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1565,7 +1565,7 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="n">
-        <v>108469.0505378405</v>
+        <v>96895.34662586667</v>
       </c>
       <c r="B26" t="s">
         <v>12</v>
@@ -1580,7 +1580,7 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="n">
-        <v>697567.8961967728</v>
+        <v>414761.1476699999</v>
       </c>
       <c r="B27" t="s">
         <v>18</v>
@@ -1595,7 +1595,7 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="n">
-        <v>1650832.225590041</v>
+        <v>771583.3100430039</v>
       </c>
       <c r="B28" t="s">
         <v>29</v>
@@ -1610,7 +1610,7 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="n">
-        <v>744014.754027862</v>
+        <v>313890.3687001493</v>
       </c>
       <c r="B29" t="s">
         <v>32</v>
@@ -1625,7 +1625,7 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="n">
-        <v>744091.0543975284</v>
+        <v>519664.2895199998</v>
       </c>
       <c r="B30" t="s">
         <v>24</v>
@@ -1640,7 +1640,7 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="n">
-        <v>926288.9728504742</v>
+        <v>558008.8446675</v>
       </c>
       <c r="B31" t="s">
         <v>30</v>
@@ -1655,7 +1655,7 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="n">
-        <v>263222.0981740615</v>
+        <v>167476.3366272677</v>
       </c>
       <c r="B32" t="s">
         <v>9</v>
@@ -1670,7 +1670,7 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="n">
-        <v>5245429.56108206</v>
+        <v>2140759.647799437</v>
       </c>
       <c r="B33" t="s">
         <v>31</v>
@@ -1685,7 +1685,7 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="n">
-        <v>1606876.827699043</v>
+        <v>722730.0476822234</v>
       </c>
       <c r="B34" t="s">
         <v>19</v>
@@ -1700,7 +1700,7 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="n">
-        <v>7866186.637952652</v>
+        <v>2360566.866950211</v>
       </c>
       <c r="B35" t="s">
         <v>17</v>
@@ -1715,7 +1715,7 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="n">
-        <v>817040.0908149014</v>
+        <v>259355.1430658761</v>
       </c>
       <c r="B36" t="s">
         <v>20</v>
@@ -1730,7 +1730,7 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="n">
-        <v>5079024.049112274</v>
+        <v>1984898.369236777</v>
       </c>
       <c r="B37" t="s">
         <v>15</v>
@@ -1745,7 +1745,7 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="n">
-        <v>5787100.119057392</v>
+        <v>1851373.981142008</v>
       </c>
       <c r="B38" t="s">
         <v>27</v>
@@ -1760,7 +1760,7 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="n">
-        <v>148618.2550130614</v>
+        <v>86757.39937499999</v>
       </c>
       <c r="B39" t="s">
         <v>25</v>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="n">
-        <v>478718.5561037704</v>
+        <v>579472.8139599999</v>
       </c>
       <c r="B40" t="s">
         <v>37</v>
@@ -1790,7 +1790,7 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="n">
-        <v>485025.3420888078</v>
+        <v>291621.7207783903</v>
       </c>
       <c r="B41" t="s">
         <v>11</v>
@@ -1805,7 +1805,7 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="n">
-        <v>566047.1781581114</v>
+        <v>339632.704</v>
       </c>
       <c r="B42" t="s">
         <v>28</v>
@@ -1820,7 +1820,7 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="n">
-        <v>482485.6208382372</v>
+        <v>252779.12419</v>
       </c>
       <c r="B43" t="s">
         <v>13</v>
@@ -1835,7 +1835,7 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="n">
-        <v>773637.4205149174</v>
+        <v>456703.1426871222</v>
       </c>
       <c r="B44" t="s">
         <v>22</v>
@@ -1850,7 +1850,7 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="n">
-        <v>2800394.332852282</v>
+        <v>741984.7203741666</v>
       </c>
       <c r="B45" t="s">
         <v>33</v>
@@ -1865,7 +1865,7 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="n">
-        <v>11152.98150894179</v>
+        <v>7132.712044</v>
       </c>
       <c r="B46" t="s">
         <v>23</v>
@@ -1880,7 +1880,7 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="n">
-        <v>5979277.138381172</v>
+        <v>2267307.723960656</v>
       </c>
       <c r="B47" t="s">
         <v>14</v>
@@ -1895,7 +1895,7 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="n">
-        <v>338061.6178753599</v>
+        <v>151313.1390283999</v>
       </c>
       <c r="B48" t="s">
         <v>21</v>
@@ -1910,7 +1910,7 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="n">
-        <v>472723.1340365013</v>
+        <v>235832.6611080666</v>
       </c>
       <c r="B49" t="s">
         <v>16</v>
@@ -1925,7 +1925,7 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="n">
-        <v>7459582.134813053</v>
+        <v>3080983.469449091</v>
       </c>
       <c r="B50" t="s">
         <v>10</v>
@@ -1940,7 +1940,7 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="n">
-        <v>15977108.85277729</v>
+        <v>7276299.300801496</v>
       </c>
       <c r="B51" t="s">
         <v>38</v>
@@ -1955,7 +1955,7 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="n">
-        <v>41015227.27718226</v>
+        <v>18670865.11195</v>
       </c>
       <c r="B52" t="s">
         <v>26</v>
@@ -1970,7 +1970,7 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="n">
-        <v>108469.0505378405</v>
+        <v>96895.34662586667</v>
       </c>
       <c r="B53" t="s">
         <v>12</v>
@@ -1985,7 +1985,7 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="n">
-        <v>697567.8961967728</v>
+        <v>414761.1476699999</v>
       </c>
       <c r="B54" t="s">
         <v>18</v>
@@ -2000,7 +2000,7 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="n">
-        <v>1650832.225590041</v>
+        <v>771583.3100430039</v>
       </c>
       <c r="B55" t="s">
         <v>29</v>
@@ -2015,7 +2015,7 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="n">
-        <v>744014.754027862</v>
+        <v>313890.3687001493</v>
       </c>
       <c r="B56" t="s">
         <v>32</v>
@@ -2030,7 +2030,7 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="n">
-        <v>744091.0543975284</v>
+        <v>519664.2895199998</v>
       </c>
       <c r="B57" t="s">
         <v>24</v>
@@ -2045,7 +2045,7 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="n">
-        <v>926288.9728504742</v>
+        <v>558008.8446675</v>
       </c>
       <c r="B58" t="s">
         <v>30</v>
@@ -2060,7 +2060,7 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="n">
-        <v>263222.0981740615</v>
+        <v>167476.3366272677</v>
       </c>
       <c r="B59" t="s">
         <v>9</v>
@@ -2075,7 +2075,7 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="n">
-        <v>5245429.56108206</v>
+        <v>2140759.647799437</v>
       </c>
       <c r="B60" t="s">
         <v>31</v>
@@ -2090,7 +2090,7 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="n">
-        <v>1606876.827699043</v>
+        <v>722730.0476822234</v>
       </c>
       <c r="B61" t="s">
         <v>19</v>
@@ -2105,7 +2105,7 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="n">
-        <v>7866186.637952652</v>
+        <v>2360566.866950211</v>
       </c>
       <c r="B62" t="s">
         <v>17</v>
@@ -2120,7 +2120,7 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="n">
-        <v>817040.0908149014</v>
+        <v>259355.1430658761</v>
       </c>
       <c r="B63" t="s">
         <v>20</v>
@@ -2135,7 +2135,7 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="n">
-        <v>5079024.049112274</v>
+        <v>1984898.369236777</v>
       </c>
       <c r="B64" t="s">
         <v>15</v>
@@ -2150,7 +2150,7 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" t="n">
-        <v>5787100.119057392</v>
+        <v>1851373.981142008</v>
       </c>
       <c r="B65" t="s">
         <v>27</v>
@@ -2165,7 +2165,7 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="n">
-        <v>148618.2550130614</v>
+        <v>86757.39937499999</v>
       </c>
       <c r="B66" t="s">
         <v>25</v>
@@ -2180,7 +2180,7 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="n">
-        <v>478718.5561037704</v>
+        <v>579472.8139599999</v>
       </c>
       <c r="B67" t="s">
         <v>37</v>
@@ -2195,7 +2195,7 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="n">
-        <v>485025.3420888078</v>
+        <v>291621.7207783903</v>
       </c>
       <c r="B68" t="s">
         <v>11</v>
@@ -2210,7 +2210,7 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" t="n">
-        <v>566047.1781581114</v>
+        <v>339632.704</v>
       </c>
       <c r="B69" t="s">
         <v>28</v>
@@ -2225,7 +2225,7 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" t="n">
-        <v>482485.6208382372</v>
+        <v>252779.12419</v>
       </c>
       <c r="B70" t="s">
         <v>13</v>
@@ -2240,7 +2240,7 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" t="n">
-        <v>773637.4205149174</v>
+        <v>456703.1426871222</v>
       </c>
       <c r="B71" t="s">
         <v>22</v>
@@ -2255,7 +2255,7 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" t="n">
-        <v>2800394.332852282</v>
+        <v>741984.7203741666</v>
       </c>
       <c r="B72" t="s">
         <v>33</v>
@@ -2270,7 +2270,7 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="n">
-        <v>11152.98150894179</v>
+        <v>7132.712044</v>
       </c>
       <c r="B73" t="s">
         <v>23</v>
@@ -2285,7 +2285,7 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" t="n">
-        <v>5979277.138381172</v>
+        <v>2267307.723960656</v>
       </c>
       <c r="B74" t="s">
         <v>14</v>
@@ -2300,7 +2300,7 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="n">
-        <v>338061.6178753599</v>
+        <v>151313.1390283999</v>
       </c>
       <c r="B75" t="s">
         <v>21</v>
@@ -2315,7 +2315,7 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="n">
-        <v>472723.1340365013</v>
+        <v>235832.6611080666</v>
       </c>
       <c r="B76" t="s">
         <v>16</v>
@@ -2330,7 +2330,7 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="n">
-        <v>7459582.134813053</v>
+        <v>3080983.469449091</v>
       </c>
       <c r="B77" t="s">
         <v>10</v>
@@ -2345,7 +2345,7 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="n">
-        <v>15977108.85277729</v>
+        <v>7276299.300801496</v>
       </c>
       <c r="B78" t="s">
         <v>38</v>
@@ -2360,7 +2360,7 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" t="n">
-        <v>41015227.27718226</v>
+        <v>18670865.11195</v>
       </c>
       <c r="B79" t="s">
         <v>26</v>
@@ -2375,7 +2375,7 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" t="n">
-        <v>108469.0505378405</v>
+        <v>96895.34662586667</v>
       </c>
       <c r="B80" t="s">
         <v>12</v>
@@ -2390,7 +2390,7 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" t="n">
-        <v>697567.8961967728</v>
+        <v>414761.1476699999</v>
       </c>
       <c r="B81" t="s">
         <v>18</v>
@@ -2405,7 +2405,7 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" t="n">
-        <v>1650832.225590041</v>
+        <v>771583.3100430039</v>
       </c>
       <c r="B82" t="s">
         <v>29</v>
@@ -2420,7 +2420,7 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="n">
-        <v>744014.754027862</v>
+        <v>313890.3687001493</v>
       </c>
       <c r="B83" t="s">
         <v>32</v>
@@ -2435,7 +2435,7 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="n">
-        <v>744091.0543975284</v>
+        <v>519664.2895199998</v>
       </c>
       <c r="B84" t="s">
         <v>24</v>
@@ -2450,7 +2450,7 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="n">
-        <v>926288.9728504742</v>
+        <v>558008.8446675</v>
       </c>
       <c r="B85" t="s">
         <v>30</v>
@@ -2465,7 +2465,7 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="n">
-        <v>263222.0981740615</v>
+        <v>167476.3366272677</v>
       </c>
       <c r="B86" t="s">
         <v>9</v>
@@ -2480,7 +2480,7 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="n">
-        <v>5245429.56108206</v>
+        <v>2140759.647799437</v>
       </c>
       <c r="B87" t="s">
         <v>31</v>
@@ -2495,7 +2495,7 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="n">
-        <v>1606876.827699043</v>
+        <v>722730.0476822234</v>
       </c>
       <c r="B88" t="s">
         <v>19</v>
@@ -2510,7 +2510,7 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="n">
-        <v>7866186.637952652</v>
+        <v>2360566.866950211</v>
       </c>
       <c r="B89" t="s">
         <v>17</v>
@@ -2525,7 +2525,7 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="n">
-        <v>817040.0908149014</v>
+        <v>259355.1430658761</v>
       </c>
       <c r="B90" t="s">
         <v>20</v>
@@ -2540,7 +2540,7 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="n">
-        <v>5079024.049112274</v>
+        <v>1984898.369236777</v>
       </c>
       <c r="B91" t="s">
         <v>15</v>
@@ -2555,7 +2555,7 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" t="n">
-        <v>5787100.119057392</v>
+        <v>1851373.981142008</v>
       </c>
       <c r="B92" t="s">
         <v>27</v>
@@ -2570,7 +2570,7 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" t="n">
-        <v>148618.2550130614</v>
+        <v>86757.39937499999</v>
       </c>
       <c r="B93" t="s">
         <v>25</v>
@@ -2585,7 +2585,7 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" t="n">
-        <v>478718.5561037704</v>
+        <v>579472.8139599999</v>
       </c>
       <c r="B94" t="s">
         <v>37</v>
@@ -2600,7 +2600,7 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" t="n">
-        <v>485025.3420888078</v>
+        <v>291621.7207783903</v>
       </c>
       <c r="B95" t="s">
         <v>11</v>
@@ -2615,7 +2615,7 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" t="n">
-        <v>566047.1781581114</v>
+        <v>339632.704</v>
       </c>
       <c r="B96" t="s">
         <v>28</v>
@@ -2630,7 +2630,7 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" t="n">
-        <v>482485.6208382372</v>
+        <v>252779.12419</v>
       </c>
       <c r="B97" t="s">
         <v>13</v>
@@ -2645,7 +2645,7 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" t="n">
-        <v>773637.4205149174</v>
+        <v>456703.1426871222</v>
       </c>
       <c r="B98" t="s">
         <v>22</v>
@@ -2660,7 +2660,7 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99" t="n">
-        <v>2800394.332852282</v>
+        <v>741984.7203741666</v>
       </c>
       <c r="B99" t="s">
         <v>33</v>
@@ -2675,7 +2675,7 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100" t="n">
-        <v>11152.98150894179</v>
+        <v>7132.712044</v>
       </c>
       <c r="B100" t="s">
         <v>23</v>
@@ -2690,7 +2690,7 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101" t="n">
-        <v>5979277.138381172</v>
+        <v>2267307.723960656</v>
       </c>
       <c r="B101" t="s">
         <v>14</v>
@@ -2705,7 +2705,7 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102" t="n">
-        <v>338061.6178753599</v>
+        <v>151313.1390283999</v>
       </c>
       <c r="B102" t="s">
         <v>21</v>
@@ -2720,7 +2720,7 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103" t="n">
-        <v>472723.1340365013</v>
+        <v>235832.6611080666</v>
       </c>
       <c r="B103" t="s">
         <v>16</v>
@@ -2735,7 +2735,7 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104" t="n">
-        <v>7459582.134813053</v>
+        <v>3080983.469449091</v>
       </c>
       <c r="B104" t="s">
         <v>10</v>
@@ -2750,7 +2750,7 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105" t="n">
-        <v>15977108.85277729</v>
+        <v>7276299.300801496</v>
       </c>
       <c r="B105" t="s">
         <v>38</v>
@@ -2765,7 +2765,7 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106" t="n">
-        <v>41015227.27718226</v>
+        <v>18670865.11195</v>
       </c>
       <c r="B106" t="s">
         <v>26</v>
@@ -2780,7 +2780,7 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107" t="n">
-        <v>108469.0505378405</v>
+        <v>96895.34662586667</v>
       </c>
       <c r="B107" t="s">
         <v>12</v>
@@ -2795,7 +2795,7 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108" t="n">
-        <v>697567.8961967728</v>
+        <v>414761.1476699999</v>
       </c>
       <c r="B108" t="s">
         <v>18</v>
@@ -2810,7 +2810,7 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109" t="n">
-        <v>1650832.225590041</v>
+        <v>771583.3100430039</v>
       </c>
       <c r="B109" t="s">
         <v>29</v>
@@ -2825,7 +2825,7 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110" t="n">
-        <v>744014.754027862</v>
+        <v>313890.3687001493</v>
       </c>
       <c r="B110" t="s">
         <v>32</v>
@@ -2840,7 +2840,7 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111" t="n">
-        <v>744091.0543975284</v>
+        <v>519664.2895199998</v>
       </c>
       <c r="B111" t="s">
         <v>24</v>
@@ -2855,7 +2855,7 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112" t="n">
-        <v>926288.9728504742</v>
+        <v>558008.8446675</v>
       </c>
       <c r="B112" t="s">
         <v>30</v>
@@ -2870,7 +2870,7 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113" t="n">
-        <v>263222.0981740615</v>
+        <v>167476.3366272677</v>
       </c>
       <c r="B113" t="s">
         <v>9</v>
@@ -2885,7 +2885,7 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114" t="n">
-        <v>5245429.56108206</v>
+        <v>2140759.647799437</v>
       </c>
       <c r="B114" t="s">
         <v>31</v>
@@ -2900,7 +2900,7 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115" t="n">
-        <v>1606876.827699043</v>
+        <v>722730.0476822234</v>
       </c>
       <c r="B115" t="s">
         <v>19</v>
@@ -2915,7 +2915,7 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116" t="n">
-        <v>7866186.637952652</v>
+        <v>2360566.866950211</v>
       </c>
       <c r="B116" t="s">
         <v>17</v>
@@ -2930,7 +2930,7 @@
     </row>
     <row r="117" spans="1:5">
       <c r="A117" t="n">
-        <v>817040.0908149014</v>
+        <v>259355.1430658761</v>
       </c>
       <c r="B117" t="s">
         <v>20</v>
@@ -2945,7 +2945,7 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" t="n">
-        <v>5079024.049112274</v>
+        <v>1984898.369236777</v>
       </c>
       <c r="B118" t="s">
         <v>15</v>
@@ -2960,7 +2960,7 @@
     </row>
     <row r="119" spans="1:5">
       <c r="A119" t="n">
-        <v>5787100.119057392</v>
+        <v>1851373.981142008</v>
       </c>
       <c r="B119" t="s">
         <v>27</v>
@@ -2975,7 +2975,7 @@
     </row>
     <row r="120" spans="1:5">
       <c r="A120" t="n">
-        <v>148618.2550130614</v>
+        <v>86757.39937499999</v>
       </c>
       <c r="B120" t="s">
         <v>25</v>
@@ -2990,7 +2990,7 @@
     </row>
     <row r="121" spans="1:5">
       <c r="A121" t="n">
-        <v>478718.5561037704</v>
+        <v>579472.8139599999</v>
       </c>
       <c r="B121" t="s">
         <v>37</v>
@@ -3005,7 +3005,7 @@
     </row>
     <row r="122" spans="1:5">
       <c r="A122" t="n">
-        <v>485025.3420888078</v>
+        <v>291621.7207783903</v>
       </c>
       <c r="B122" t="s">
         <v>11</v>
@@ -3020,7 +3020,7 @@
     </row>
     <row r="123" spans="1:5">
       <c r="A123" t="n">
-        <v>566047.1781581114</v>
+        <v>339632.704</v>
       </c>
       <c r="B123" t="s">
         <v>28</v>
@@ -3035,7 +3035,7 @@
     </row>
     <row r="124" spans="1:5">
       <c r="A124" t="n">
-        <v>482485.6208382372</v>
+        <v>252779.12419</v>
       </c>
       <c r="B124" t="s">
         <v>13</v>
@@ -3050,7 +3050,7 @@
     </row>
     <row r="125" spans="1:5">
       <c r="A125" t="n">
-        <v>773637.4205149174</v>
+        <v>456703.1426871222</v>
       </c>
       <c r="B125" t="s">
         <v>22</v>
@@ -3065,7 +3065,7 @@
     </row>
     <row r="126" spans="1:5">
       <c r="A126" t="n">
-        <v>2800394.332852282</v>
+        <v>741984.7203741666</v>
       </c>
       <c r="B126" t="s">
         <v>33</v>
@@ -3080,7 +3080,7 @@
     </row>
     <row r="127" spans="1:5">
       <c r="A127" t="n">
-        <v>11152.98150894179</v>
+        <v>7132.712044</v>
       </c>
       <c r="B127" t="s">
         <v>23</v>
@@ -3095,7 +3095,7 @@
     </row>
     <row r="128" spans="1:5">
       <c r="A128" t="n">
-        <v>5979277.138381172</v>
+        <v>2267307.723960656</v>
       </c>
       <c r="B128" t="s">
         <v>14</v>
@@ -3110,7 +3110,7 @@
     </row>
     <row r="129" spans="1:5">
       <c r="A129" t="n">
-        <v>338061.6178753599</v>
+        <v>151313.1390283999</v>
       </c>
       <c r="B129" t="s">
         <v>21</v>
@@ -3125,7 +3125,7 @@
     </row>
     <row r="130" spans="1:5">
       <c r="A130" t="n">
-        <v>472723.1340365013</v>
+        <v>235832.6611080666</v>
       </c>
       <c r="B130" t="s">
         <v>16</v>
@@ -3140,7 +3140,7 @@
     </row>
     <row r="131" spans="1:5">
       <c r="A131" t="n">
-        <v>7459582.134813053</v>
+        <v>3080983.469449091</v>
       </c>
       <c r="B131" t="s">
         <v>10</v>
@@ -3155,7 +3155,7 @@
     </row>
     <row r="132" spans="1:5">
       <c r="A132" t="n">
-        <v>15977108.85277729</v>
+        <v>7276299.300801496</v>
       </c>
       <c r="B132" t="s">
         <v>38</v>
@@ -3170,7 +3170,7 @@
     </row>
     <row r="133" spans="1:5">
       <c r="A133" t="n">
-        <v>41015227.27718226</v>
+        <v>18670865.11195</v>
       </c>
       <c r="B133" t="s">
         <v>26</v>
@@ -3185,7 +3185,7 @@
     </row>
     <row r="134" spans="1:5">
       <c r="A134" t="n">
-        <v>108469.0505378405</v>
+        <v>96895.34662586667</v>
       </c>
       <c r="B134" t="s">
         <v>12</v>
@@ -3200,7 +3200,7 @@
     </row>
     <row r="135" spans="1:5">
       <c r="A135" t="n">
-        <v>697567.8961967728</v>
+        <v>414761.1476699999</v>
       </c>
       <c r="B135" t="s">
         <v>18</v>
@@ -3215,7 +3215,7 @@
     </row>
     <row r="136" spans="1:5">
       <c r="A136" t="n">
-        <v>1650832.225590041</v>
+        <v>771583.3100430039</v>
       </c>
       <c r="B136" t="s">
         <v>29</v>
@@ -3230,7 +3230,7 @@
     </row>
     <row r="137" spans="1:5">
       <c r="A137" t="n">
-        <v>744014.754027862</v>
+        <v>313890.3687001493</v>
       </c>
       <c r="B137" t="s">
         <v>32</v>
@@ -3245,7 +3245,7 @@
     </row>
     <row r="138" spans="1:5">
       <c r="A138" t="n">
-        <v>744091.0543975284</v>
+        <v>519664.2895199998</v>
       </c>
       <c r="B138" t="s">
         <v>24</v>
@@ -3260,7 +3260,7 @@
     </row>
     <row r="139" spans="1:5">
       <c r="A139" t="n">
-        <v>926288.9728504742</v>
+        <v>558008.8446675</v>
       </c>
       <c r="B139" t="s">
         <v>30</v>
@@ -3275,7 +3275,7 @@
     </row>
     <row r="140" spans="1:5">
       <c r="A140" t="n">
-        <v>263222.0981740615</v>
+        <v>167476.3366272677</v>
       </c>
       <c r="B140" t="s">
         <v>9</v>
@@ -3290,7 +3290,7 @@
     </row>
     <row r="141" spans="1:5">
       <c r="A141" t="n">
-        <v>5245429.56108206</v>
+        <v>2140759.647799437</v>
       </c>
       <c r="B141" t="s">
         <v>31</v>
@@ -3305,7 +3305,7 @@
     </row>
     <row r="142" spans="1:5">
       <c r="A142" t="n">
-        <v>1606876.827699043</v>
+        <v>722730.0476822234</v>
       </c>
       <c r="B142" t="s">
         <v>19</v>
@@ -3320,7 +3320,7 @@
     </row>
     <row r="143" spans="1:5">
       <c r="A143" t="n">
-        <v>7866186.637952652</v>
+        <v>2360566.866950211</v>
       </c>
       <c r="B143" t="s">
         <v>17</v>
@@ -3335,7 +3335,7 @@
     </row>
     <row r="144" spans="1:5">
       <c r="A144" t="n">
-        <v>817040.0908149014</v>
+        <v>259355.1430658761</v>
       </c>
       <c r="B144" t="s">
         <v>20</v>
@@ -3350,7 +3350,7 @@
     </row>
     <row r="145" spans="1:5">
       <c r="A145" t="n">
-        <v>5079024.049112274</v>
+        <v>1984898.369236777</v>
       </c>
       <c r="B145" t="s">
         <v>15</v>
@@ -3365,7 +3365,7 @@
     </row>
     <row r="146" spans="1:5">
       <c r="A146" t="n">
-        <v>5787100.119057392</v>
+        <v>1851373.981142008</v>
       </c>
       <c r="B146" t="s">
         <v>27</v>
@@ -3380,7 +3380,7 @@
     </row>
     <row r="147" spans="1:5">
       <c r="A147" t="n">
-        <v>148618.2550130614</v>
+        <v>86757.39937499999</v>
       </c>
       <c r="B147" t="s">
         <v>25</v>
@@ -3395,7 +3395,7 @@
     </row>
     <row r="148" spans="1:5">
       <c r="A148" t="n">
-        <v>478718.5561037704</v>
+        <v>579472.8139599999</v>
       </c>
       <c r="B148" t="s">
         <v>37</v>
@@ -3410,7 +3410,7 @@
     </row>
     <row r="149" spans="1:5">
       <c r="A149" t="n">
-        <v>485025.3420888078</v>
+        <v>291621.7207783903</v>
       </c>
       <c r="B149" t="s">
         <v>11</v>
@@ -3425,7 +3425,7 @@
     </row>
     <row r="150" spans="1:5">
       <c r="A150" t="n">
-        <v>566047.1781581114</v>
+        <v>339632.704</v>
       </c>
       <c r="B150" t="s">
         <v>28</v>
@@ -3440,7 +3440,7 @@
     </row>
     <row r="151" spans="1:5">
       <c r="A151" t="n">
-        <v>482485.6208382372</v>
+        <v>252779.12419</v>
       </c>
       <c r="B151" t="s">
         <v>13</v>
@@ -3455,7 +3455,7 @@
     </row>
     <row r="152" spans="1:5">
       <c r="A152" t="n">
-        <v>773637.4205149174</v>
+        <v>456703.1426871222</v>
       </c>
       <c r="B152" t="s">
         <v>22</v>
@@ -3470,7 +3470,7 @@
     </row>
     <row r="153" spans="1:5">
       <c r="A153" t="n">
-        <v>2800394.332852282</v>
+        <v>741984.7203741666</v>
       </c>
       <c r="B153" t="s">
         <v>33</v>
@@ -3485,7 +3485,7 @@
     </row>
     <row r="154" spans="1:5">
       <c r="A154" t="n">
-        <v>11152.98150894179</v>
+        <v>7132.712044</v>
       </c>
       <c r="B154" t="s">
         <v>23</v>
@@ -3500,7 +3500,7 @@
     </row>
     <row r="155" spans="1:5">
       <c r="A155" t="n">
-        <v>5979277.138381172</v>
+        <v>2267307.723960656</v>
       </c>
       <c r="B155" t="s">
         <v>14</v>
@@ -3515,7 +3515,7 @@
     </row>
     <row r="156" spans="1:5">
       <c r="A156" t="n">
-        <v>338061.6178753599</v>
+        <v>151313.1390283999</v>
       </c>
       <c r="B156" t="s">
         <v>21</v>
@@ -3530,7 +3530,7 @@
     </row>
     <row r="157" spans="1:5">
       <c r="A157" t="n">
-        <v>472723.1340365013</v>
+        <v>235832.6611080666</v>
       </c>
       <c r="B157" t="s">
         <v>16</v>
@@ -3545,7 +3545,7 @@
     </row>
     <row r="158" spans="1:5">
       <c r="A158" t="n">
-        <v>7459582.134813053</v>
+        <v>3080983.469449091</v>
       </c>
       <c r="B158" t="s">
         <v>10</v>
@@ -3560,7 +3560,7 @@
     </row>
     <row r="159" spans="1:5">
       <c r="A159" t="n">
-        <v>15977108.85277729</v>
+        <v>7276299.300801496</v>
       </c>
       <c r="B159" t="s">
         <v>38</v>
@@ -3575,7 +3575,7 @@
     </row>
     <row r="160" spans="1:5">
       <c r="A160" t="n">
-        <v>41015227.27718226</v>
+        <v>18670865.11195</v>
       </c>
       <c r="B160" t="s">
         <v>26</v>
@@ -3590,7 +3590,7 @@
     </row>
     <row r="161" spans="1:5">
       <c r="A161" t="n">
-        <v>108469.0505378405</v>
+        <v>96895.34662586667</v>
       </c>
       <c r="B161" t="s">
         <v>12</v>
@@ -3605,7 +3605,7 @@
     </row>
     <row r="162" spans="1:5">
       <c r="A162" t="n">
-        <v>697567.8961967728</v>
+        <v>414761.1476699999</v>
       </c>
       <c r="B162" t="s">
         <v>18</v>
@@ -3620,7 +3620,7 @@
     </row>
     <row r="163" spans="1:5">
       <c r="A163" t="n">
-        <v>1650832.225590041</v>
+        <v>771583.3100430039</v>
       </c>
       <c r="B163" t="s">
         <v>29</v>
@@ -3635,7 +3635,7 @@
     </row>
     <row r="164" spans="1:5">
       <c r="A164" t="n">
-        <v>744014.754027862</v>
+        <v>313890.3687001493</v>
       </c>
       <c r="B164" t="s">
         <v>32</v>
@@ -3650,7 +3650,7 @@
     </row>
     <row r="165" spans="1:5">
       <c r="A165" t="n">
-        <v>744091.0543975284</v>
+        <v>519664.2895199998</v>
       </c>
       <c r="B165" t="s">
         <v>24</v>
@@ -3665,7 +3665,7 @@
     </row>
     <row r="166" spans="1:5">
       <c r="A166" t="n">
-        <v>926288.9728504742</v>
+        <v>558008.8446675</v>
       </c>
       <c r="B166" t="s">
         <v>30</v>
@@ -3680,7 +3680,7 @@
     </row>
     <row r="167" spans="1:5">
       <c r="A167" t="n">
-        <v>263222.0981740615</v>
+        <v>167476.3366272677</v>
       </c>
       <c r="B167" t="s">
         <v>9</v>
@@ -3695,7 +3695,7 @@
     </row>
     <row r="168" spans="1:5">
       <c r="A168" t="n">
-        <v>5245429.56108206</v>
+        <v>2140759.647799437</v>
       </c>
       <c r="B168" t="s">
         <v>31</v>
@@ -3710,7 +3710,7 @@
     </row>
     <row r="169" spans="1:5">
       <c r="A169" t="n">
-        <v>1606876.827699043</v>
+        <v>722730.0476822234</v>
       </c>
       <c r="B169" t="s">
         <v>19</v>
@@ -3725,7 +3725,7 @@
     </row>
     <row r="170" spans="1:5">
       <c r="A170" t="n">
-        <v>7866186.637952652</v>
+        <v>2360566.866950211</v>
       </c>
       <c r="B170" t="s">
         <v>17</v>
@@ -3740,7 +3740,7 @@
     </row>
     <row r="171" spans="1:5">
       <c r="A171" t="n">
-        <v>817040.0908149014</v>
+        <v>259355.1430658761</v>
       </c>
       <c r="B171" t="s">
         <v>20</v>
@@ -3755,7 +3755,7 @@
     </row>
     <row r="172" spans="1:5">
       <c r="A172" t="n">
-        <v>5079024.049112274</v>
+        <v>1984898.369236777</v>
       </c>
       <c r="B172" t="s">
         <v>15</v>
@@ -3770,7 +3770,7 @@
     </row>
     <row r="173" spans="1:5">
       <c r="A173" t="n">
-        <v>5787100.119057392</v>
+        <v>1851373.981142008</v>
       </c>
       <c r="B173" t="s">
         <v>27</v>
@@ -3785,7 +3785,7 @@
     </row>
     <row r="174" spans="1:5">
       <c r="A174" t="n">
-        <v>148618.2550130614</v>
+        <v>86757.39937499999</v>
       </c>
       <c r="B174" t="s">
         <v>25</v>
@@ -3800,7 +3800,7 @@
     </row>
     <row r="175" spans="1:5">
       <c r="A175" t="n">
-        <v>478718.5561037704</v>
+        <v>579472.8139599999</v>
       </c>
       <c r="B175" t="s">
         <v>37</v>
@@ -3815,7 +3815,7 @@
     </row>
     <row r="176" spans="1:5">
       <c r="A176" t="n">
-        <v>485025.3420888078</v>
+        <v>291621.7207783903</v>
       </c>
       <c r="B176" t="s">
         <v>11</v>
@@ -3830,7 +3830,7 @@
     </row>
     <row r="177" spans="1:5">
       <c r="A177" t="n">
-        <v>566047.1781581114</v>
+        <v>339632.704</v>
       </c>
       <c r="B177" t="s">
         <v>28</v>
@@ -3845,7 +3845,7 @@
     </row>
     <row r="178" spans="1:5">
       <c r="A178" t="n">
-        <v>482485.6208382372</v>
+        <v>252779.12419</v>
       </c>
       <c r="B178" t="s">
         <v>13</v>
@@ -3860,7 +3860,7 @@
     </row>
     <row r="179" spans="1:5">
       <c r="A179" t="n">
-        <v>773637.4205149174</v>
+        <v>456703.1426871222</v>
       </c>
       <c r="B179" t="s">
         <v>22</v>
@@ -3875,7 +3875,7 @@
     </row>
     <row r="180" spans="1:5">
       <c r="A180" t="n">
-        <v>2800394.332852282</v>
+        <v>741984.7203741666</v>
       </c>
       <c r="B180" t="s">
         <v>33</v>
@@ -3890,7 +3890,7 @@
     </row>
     <row r="181" spans="1:5">
       <c r="A181" t="n">
-        <v>11152.98150894179</v>
+        <v>7132.712044</v>
       </c>
       <c r="B181" t="s">
         <v>23</v>
@@ -3905,7 +3905,7 @@
     </row>
     <row r="182" spans="1:5">
       <c r="A182" t="n">
-        <v>5979277.138381172</v>
+        <v>2267307.723960656</v>
       </c>
       <c r="B182" t="s">
         <v>14</v>
@@ -3920,7 +3920,7 @@
     </row>
     <row r="183" spans="1:5">
       <c r="A183" t="n">
-        <v>338061.6178753599</v>
+        <v>151313.1390283999</v>
       </c>
       <c r="B183" t="s">
         <v>21</v>
@@ -3935,7 +3935,7 @@
     </row>
     <row r="184" spans="1:5">
       <c r="A184" t="n">
-        <v>472723.1340365013</v>
+        <v>235832.6611080666</v>
       </c>
       <c r="B184" t="s">
         <v>16</v>
@@ -3950,7 +3950,7 @@
     </row>
     <row r="185" spans="1:5">
       <c r="A185" t="n">
-        <v>7459582.134813053</v>
+        <v>3080983.469449091</v>
       </c>
       <c r="B185" t="s">
         <v>10</v>
@@ -3965,7 +3965,7 @@
     </row>
     <row r="186" spans="1:5">
       <c r="A186" t="n">
-        <v>15977108.85277729</v>
+        <v>7276299.300801496</v>
       </c>
       <c r="B186" t="s">
         <v>38</v>
@@ -3980,7 +3980,7 @@
     </row>
     <row r="187" spans="1:5">
       <c r="A187" t="n">
-        <v>41015227.27718226</v>
+        <v>18670865.11195</v>
       </c>
       <c r="B187" t="s">
         <v>26</v>
@@ -3995,7 +3995,7 @@
     </row>
     <row r="188" spans="1:5">
       <c r="A188" t="n">
-        <v>108469.0505378405</v>
+        <v>96895.34662586667</v>
       </c>
       <c r="B188" t="s">
         <v>12</v>
@@ -4010,7 +4010,7 @@
     </row>
     <row r="189" spans="1:5">
       <c r="A189" t="n">
-        <v>697567.8961967728</v>
+        <v>414761.1476699999</v>
       </c>
       <c r="B189" t="s">
         <v>18</v>
@@ -4025,7 +4025,7 @@
     </row>
     <row r="190" spans="1:5">
       <c r="A190" t="n">
-        <v>1650832.225590041</v>
+        <v>771583.3100430039</v>
       </c>
       <c r="B190" t="s">
         <v>29</v>
@@ -4040,7 +4040,7 @@
     </row>
     <row r="191" spans="1:5">
       <c r="A191" t="n">
-        <v>744014.754027862</v>
+        <v>313890.3687001493</v>
       </c>
       <c r="B191" t="s">
         <v>32</v>
@@ -4055,7 +4055,7 @@
     </row>
     <row r="192" spans="1:5">
       <c r="A192" t="n">
-        <v>744091.0543975284</v>
+        <v>519664.2895199998</v>
       </c>
       <c r="B192" t="s">
         <v>24</v>
@@ -4070,7 +4070,7 @@
     </row>
     <row r="193" spans="1:5">
       <c r="A193" t="n">
-        <v>926288.9728504742</v>
+        <v>558008.8446675</v>
       </c>
       <c r="B193" t="s">
         <v>30</v>
@@ -4085,7 +4085,7 @@
     </row>
     <row r="194" spans="1:5">
       <c r="A194" t="n">
-        <v>263222.0981740615</v>
+        <v>167476.3366272677</v>
       </c>
       <c r="B194" t="s">
         <v>9</v>
@@ -4100,7 +4100,7 @@
     </row>
     <row r="195" spans="1:5">
       <c r="A195" t="n">
-        <v>5245429.56108206</v>
+        <v>2140759.647799437</v>
       </c>
       <c r="B195" t="s">
         <v>31</v>
@@ -4115,7 +4115,7 @@
     </row>
     <row r="196" spans="1:5">
       <c r="A196" t="n">
-        <v>1606876.827699043</v>
+        <v>722730.0476822234</v>
       </c>
       <c r="B196" t="s">
         <v>19</v>
@@ -4130,7 +4130,7 @@
     </row>
     <row r="197" spans="1:5">
       <c r="A197" t="n">
-        <v>7866186.637952652</v>
+        <v>2360566.866950211</v>
       </c>
       <c r="B197" t="s">
         <v>17</v>
@@ -4145,7 +4145,7 @@
     </row>
     <row r="198" spans="1:5">
       <c r="A198" t="n">
-        <v>817040.0908149014</v>
+        <v>259355.1430658761</v>
       </c>
       <c r="B198" t="s">
         <v>20</v>
@@ -4160,7 +4160,7 @@
     </row>
     <row r="199" spans="1:5">
       <c r="A199" t="n">
-        <v>5079024.049112274</v>
+        <v>1984898.369236777</v>
       </c>
       <c r="B199" t="s">
         <v>15</v>
@@ -4175,7 +4175,7 @@
     </row>
     <row r="200" spans="1:5">
       <c r="A200" t="n">
-        <v>5787100.119057392</v>
+        <v>1851373.981142008</v>
       </c>
       <c r="B200" t="s">
         <v>27</v>
@@ -4190,7 +4190,7 @@
     </row>
     <row r="201" spans="1:5">
       <c r="A201" t="n">
-        <v>148618.2550130614</v>
+        <v>86757.39937499999</v>
       </c>
       <c r="B201" t="s">
         <v>25</v>
@@ -4205,7 +4205,7 @@
     </row>
     <row r="202" spans="1:5">
       <c r="A202" t="n">
-        <v>478718.5561037704</v>
+        <v>579472.8139599999</v>
       </c>
       <c r="B202" t="s">
         <v>37</v>
@@ -4220,7 +4220,7 @@
     </row>
     <row r="203" spans="1:5">
       <c r="A203" t="n">
-        <v>485025.3420888078</v>
+        <v>291621.7207783903</v>
       </c>
       <c r="B203" t="s">
         <v>11</v>
@@ -4235,7 +4235,7 @@
     </row>
     <row r="204" spans="1:5">
       <c r="A204" t="n">
-        <v>566047.1781581114</v>
+        <v>339632.704</v>
       </c>
       <c r="B204" t="s">
         <v>28</v>
@@ -4250,7 +4250,7 @@
     </row>
     <row r="205" spans="1:5">
       <c r="A205" t="n">
-        <v>482485.6208382372</v>
+        <v>252779.12419</v>
       </c>
       <c r="B205" t="s">
         <v>13</v>
@@ -4265,7 +4265,7 @@
     </row>
     <row r="206" spans="1:5">
       <c r="A206" t="n">
-        <v>773637.4205149174</v>
+        <v>456703.1426871222</v>
       </c>
       <c r="B206" t="s">
         <v>22</v>
@@ -4280,7 +4280,7 @@
     </row>
     <row r="207" spans="1:5">
       <c r="A207" t="n">
-        <v>2800394.332852282</v>
+        <v>741984.7203741666</v>
       </c>
       <c r="B207" t="s">
         <v>33</v>
@@ -4295,7 +4295,7 @@
     </row>
     <row r="208" spans="1:5">
       <c r="A208" t="n">
-        <v>11152.98150894179</v>
+        <v>7132.712044</v>
       </c>
       <c r="B208" t="s">
         <v>23</v>
@@ -4310,7 +4310,7 @@
     </row>
     <row r="209" spans="1:5">
       <c r="A209" t="n">
-        <v>5979277.138381172</v>
+        <v>2267307.723960656</v>
       </c>
       <c r="B209" t="s">
         <v>14</v>
@@ -4325,7 +4325,7 @@
     </row>
     <row r="210" spans="1:5">
       <c r="A210" t="n">
-        <v>338061.6178753599</v>
+        <v>151313.1390283999</v>
       </c>
       <c r="B210" t="s">
         <v>21</v>
@@ -4340,7 +4340,7 @@
     </row>
     <row r="211" spans="1:5">
       <c r="A211" t="n">
-        <v>472723.1340365013</v>
+        <v>235832.6611080666</v>
       </c>
       <c r="B211" t="s">
         <v>16</v>
@@ -4355,7 +4355,7 @@
     </row>
     <row r="212" spans="1:5">
       <c r="A212" t="n">
-        <v>7459582.134813053</v>
+        <v>3080983.469449091</v>
       </c>
       <c r="B212" t="s">
         <v>10</v>
@@ -4370,7 +4370,7 @@
     </row>
     <row r="213" spans="1:5">
       <c r="A213" t="n">
-        <v>15977108.85277729</v>
+        <v>7276299.300801496</v>
       </c>
       <c r="B213" t="s">
         <v>38</v>
@@ -4385,7 +4385,7 @@
     </row>
     <row r="214" spans="1:5">
       <c r="A214" t="n">
-        <v>41015227.27718226</v>
+        <v>18670865.11195</v>
       </c>
       <c r="B214" t="s">
         <v>26</v>
@@ -4400,7 +4400,7 @@
     </row>
     <row r="215" spans="1:5">
       <c r="A215" t="n">
-        <v>108469.0505378405</v>
+        <v>96895.34662586667</v>
       </c>
       <c r="B215" t="s">
         <v>12</v>
@@ -4415,7 +4415,7 @@
     </row>
     <row r="216" spans="1:5">
       <c r="A216" t="n">
-        <v>697567.8961967728</v>
+        <v>414761.1476699999</v>
       </c>
       <c r="B216" t="s">
         <v>18</v>
@@ -4430,7 +4430,7 @@
     </row>
     <row r="217" spans="1:5">
       <c r="A217" t="n">
-        <v>1650832.225590041</v>
+        <v>771583.3100430039</v>
       </c>
       <c r="B217" t="s">
         <v>29</v>
@@ -4445,7 +4445,7 @@
     </row>
     <row r="218" spans="1:5">
       <c r="A218" t="n">
-        <v>744014.754027862</v>
+        <v>313890.3687001493</v>
       </c>
       <c r="B218" t="s">
         <v>32</v>
@@ -4460,7 +4460,7 @@
     </row>
     <row r="219" spans="1:5">
       <c r="A219" t="n">
-        <v>744091.0543975284</v>
+        <v>519664.2895199998</v>
       </c>
       <c r="B219" t="s">
         <v>24</v>
@@ -4475,7 +4475,7 @@
     </row>
     <row r="220" spans="1:5">
       <c r="A220" t="n">
-        <v>926288.9728504742</v>
+        <v>558008.8446675</v>
       </c>
       <c r="B220" t="s">
         <v>30</v>
@@ -4490,7 +4490,7 @@
     </row>
     <row r="221" spans="1:5">
       <c r="A221" t="n">
-        <v>263222.0981740615</v>
+        <v>167476.3366272677</v>
       </c>
       <c r="B221" t="s">
         <v>9</v>
@@ -4505,7 +4505,7 @@
     </row>
     <row r="222" spans="1:5">
       <c r="A222" t="n">
-        <v>5245429.56108206</v>
+        <v>2140759.647799437</v>
       </c>
       <c r="B222" t="s">
         <v>31</v>
@@ -4520,7 +4520,7 @@
     </row>
     <row r="223" spans="1:5">
       <c r="A223" t="n">
-        <v>1606876.827699043</v>
+        <v>722730.0476822234</v>
       </c>
       <c r="B223" t="s">
         <v>19</v>
@@ -4535,7 +4535,7 @@
     </row>
     <row r="224" spans="1:5">
       <c r="A224" t="n">
-        <v>7866186.637952652</v>
+        <v>2360566.866950211</v>
       </c>
       <c r="B224" t="s">
         <v>17</v>
@@ -4550,7 +4550,7 @@
     </row>
     <row r="225" spans="1:5">
       <c r="A225" t="n">
-        <v>817040.0908149014</v>
+        <v>259355.1430658761</v>
       </c>
       <c r="B225" t="s">
         <v>20</v>
@@ -4565,7 +4565,7 @@
     </row>
     <row r="226" spans="1:5">
       <c r="A226" t="n">
-        <v>5079024.049112274</v>
+        <v>1984898.369236777</v>
       </c>
       <c r="B226" t="s">
         <v>15</v>
@@ -4580,7 +4580,7 @@
     </row>
     <row r="227" spans="1:5">
       <c r="A227" t="n">
-        <v>5787100.119057392</v>
+        <v>1851373.981142008</v>
       </c>
       <c r="B227" t="s">
         <v>27</v>
@@ -4595,7 +4595,7 @@
     </row>
     <row r="228" spans="1:5">
       <c r="A228" t="n">
-        <v>148618.2550130614</v>
+        <v>86757.39937499999</v>
       </c>
       <c r="B228" t="s">
         <v>25</v>
@@ -4610,7 +4610,7 @@
     </row>
     <row r="229" spans="1:5">
       <c r="A229" t="n">
-        <v>478718.5561037704</v>
+        <v>579472.8139599999</v>
       </c>
       <c r="B229" t="s">
         <v>37</v>
@@ -4625,7 +4625,7 @@
     </row>
     <row r="230" spans="1:5">
       <c r="A230" t="n">
-        <v>485025.3420888078</v>
+        <v>291621.7207783903</v>
       </c>
       <c r="B230" t="s">
         <v>11</v>
@@ -4640,7 +4640,7 @@
     </row>
     <row r="231" spans="1:5">
       <c r="A231" t="n">
-        <v>566047.1781581114</v>
+        <v>339632.704</v>
       </c>
       <c r="B231" t="s">
         <v>28</v>
@@ -4655,7 +4655,7 @@
     </row>
     <row r="232" spans="1:5">
       <c r="A232" t="n">
-        <v>482485.6208382372</v>
+        <v>252779.12419</v>
       </c>
       <c r="B232" t="s">
         <v>13</v>
@@ -4670,7 +4670,7 @@
     </row>
     <row r="233" spans="1:5">
       <c r="A233" t="n">
-        <v>773637.4205149174</v>
+        <v>456703.1426871222</v>
       </c>
       <c r="B233" t="s">
         <v>22</v>
@@ -4685,7 +4685,7 @@
     </row>
     <row r="234" spans="1:5">
       <c r="A234" t="n">
-        <v>2800394.332852282</v>
+        <v>741984.7203741666</v>
       </c>
       <c r="B234" t="s">
         <v>33</v>
@@ -4700,7 +4700,7 @@
     </row>
     <row r="235" spans="1:5">
       <c r="A235" t="n">
-        <v>11152.98150894179</v>
+        <v>7132.712044</v>
       </c>
       <c r="B235" t="s">
         <v>23</v>
@@ -4715,7 +4715,7 @@
     </row>
     <row r="236" spans="1:5">
       <c r="A236" t="n">
-        <v>5979277.138381172</v>
+        <v>2267307.723960656</v>
       </c>
       <c r="B236" t="s">
         <v>14</v>
@@ -4730,7 +4730,7 @@
     </row>
     <row r="237" spans="1:5">
       <c r="A237" t="n">
-        <v>338061.6178753599</v>
+        <v>151313.1390283999</v>
       </c>
       <c r="B237" t="s">
         <v>21</v>
@@ -4745,7 +4745,7 @@
     </row>
     <row r="238" spans="1:5">
       <c r="A238" t="n">
-        <v>472723.1340365013</v>
+        <v>235832.6611080666</v>
       </c>
       <c r="B238" t="s">
         <v>16</v>
@@ -4760,7 +4760,7 @@
     </row>
     <row r="239" spans="1:5">
       <c r="A239" t="n">
-        <v>7459582.134813053</v>
+        <v>3080983.469449091</v>
       </c>
       <c r="B239" t="s">
         <v>10</v>
@@ -4775,7 +4775,7 @@
     </row>
     <row r="240" spans="1:5">
       <c r="A240" t="n">
-        <v>15977108.85277729</v>
+        <v>7276299.300801496</v>
       </c>
       <c r="B240" t="s">
         <v>38</v>
@@ -4790,7 +4790,7 @@
     </row>
     <row r="241" spans="1:5">
       <c r="A241" t="n">
-        <v>41015227.27718226</v>
+        <v>18670865.11195</v>
       </c>
       <c r="B241" t="s">
         <v>26</v>
@@ -4805,7 +4805,7 @@
     </row>
     <row r="242" spans="1:5">
       <c r="A242" t="n">
-        <v>108469.0505378405</v>
+        <v>96895.34662586667</v>
       </c>
       <c r="B242" t="s">
         <v>12</v>
@@ -4820,7 +4820,7 @@
     </row>
     <row r="243" spans="1:5">
       <c r="A243" t="n">
-        <v>697567.8961967728</v>
+        <v>414761.1476699999</v>
       </c>
       <c r="B243" t="s">
         <v>18</v>
@@ -4835,7 +4835,7 @@
     </row>
     <row r="244" spans="1:5">
       <c r="A244" t="n">
-        <v>1650832.225590041</v>
+        <v>771583.3100430039</v>
       </c>
       <c r="B244" t="s">
         <v>29</v>
@@ -4850,7 +4850,7 @@
     </row>
     <row r="245" spans="1:5">
       <c r="A245" t="n">
-        <v>744014.754027862</v>
+        <v>313890.3687001493</v>
       </c>
       <c r="B245" t="s">
         <v>32</v>
@@ -4865,7 +4865,7 @@
     </row>
     <row r="246" spans="1:5">
       <c r="A246" t="n">
-        <v>744091.0543975284</v>
+        <v>519664.2895199998</v>
       </c>
       <c r="B246" t="s">
         <v>24</v>
@@ -4880,7 +4880,7 @@
     </row>
     <row r="247" spans="1:5">
       <c r="A247" t="n">
-        <v>926288.9728504742</v>
+        <v>558008.8446675</v>
       </c>
       <c r="B247" t="s">
         <v>30</v>
@@ -4895,7 +4895,7 @@
     </row>
     <row r="248" spans="1:5">
       <c r="A248" t="n">
-        <v>263222.0981740615</v>
+        <v>167476.3366272677</v>
       </c>
       <c r="B248" t="s">
         <v>9</v>
@@ -4910,7 +4910,7 @@
     </row>
     <row r="249" spans="1:5">
       <c r="A249" t="n">
-        <v>5245429.56108206</v>
+        <v>2140759.647799437</v>
       </c>
       <c r="B249" t="s">
         <v>31</v>
@@ -4925,7 +4925,7 @@
     </row>
     <row r="250" spans="1:5">
       <c r="A250" t="n">
-        <v>1606876.827699043</v>
+        <v>722730.0476822234</v>
       </c>
       <c r="B250" t="s">
         <v>19</v>
@@ -4940,7 +4940,7 @@
     </row>
     <row r="251" spans="1:5">
       <c r="A251" t="n">
-        <v>7866186.637952652</v>
+        <v>2360566.866950211</v>
       </c>
       <c r="B251" t="s">
         <v>17</v>
@@ -4955,7 +4955,7 @@
     </row>
     <row r="252" spans="1:5">
       <c r="A252" t="n">
-        <v>817040.0908149014</v>
+        <v>259355.1430658761</v>
       </c>
       <c r="B252" t="s">
         <v>20</v>
@@ -4970,7 +4970,7 @@
     </row>
     <row r="253" spans="1:5">
       <c r="A253" t="n">
-        <v>5079024.049112274</v>
+        <v>1984898.369236777</v>
       </c>
       <c r="B253" t="s">
         <v>15</v>
@@ -4985,7 +4985,7 @@
     </row>
     <row r="254" spans="1:5">
       <c r="A254" t="n">
-        <v>5787100.119057392</v>
+        <v>1851373.981142008</v>
       </c>
       <c r="B254" t="s">
         <v>27</v>
@@ -5000,7 +5000,7 @@
     </row>
     <row r="255" spans="1:5">
       <c r="A255" t="n">
-        <v>148618.2550130614</v>
+        <v>86757.39937499999</v>
       </c>
       <c r="B255" t="s">
         <v>25</v>
@@ -5015,7 +5015,7 @@
     </row>
     <row r="256" spans="1:5">
       <c r="A256" t="n">
-        <v>478718.5561037704</v>
+        <v>579472.8139599999</v>
       </c>
       <c r="B256" t="s">
         <v>37</v>
@@ -5030,7 +5030,7 @@
     </row>
     <row r="257" spans="1:5">
       <c r="A257" t="n">
-        <v>485025.3420888078</v>
+        <v>291621.7207783903</v>
       </c>
       <c r="B257" t="s">
         <v>11</v>
@@ -5045,7 +5045,7 @@
     </row>
     <row r="258" spans="1:5">
       <c r="A258" t="n">
-        <v>566047.1781581114</v>
+        <v>339632.704</v>
       </c>
       <c r="B258" t="s">
         <v>28</v>
@@ -5060,7 +5060,7 @@
     </row>
     <row r="259" spans="1:5">
       <c r="A259" t="n">
-        <v>482485.6208382372</v>
+        <v>252779.12419</v>
       </c>
       <c r="B259" t="s">
         <v>13</v>
@@ -5075,7 +5075,7 @@
     </row>
     <row r="260" spans="1:5">
       <c r="A260" t="n">
-        <v>773637.4205149174</v>
+        <v>456703.1426871222</v>
       </c>
       <c r="B260" t="s">
         <v>22</v>
@@ -5090,7 +5090,7 @@
     </row>
     <row r="261" spans="1:5">
       <c r="A261" t="n">
-        <v>2800394.332852282</v>
+        <v>741984.7203741666</v>
       </c>
       <c r="B261" t="s">
         <v>33</v>
@@ -5105,7 +5105,7 @@
     </row>
     <row r="262" spans="1:5">
       <c r="A262" t="n">
-        <v>11152.98150894179</v>
+        <v>7132.712044</v>
       </c>
       <c r="B262" t="s">
         <v>23</v>
@@ -5120,7 +5120,7 @@
     </row>
     <row r="263" spans="1:5">
       <c r="A263" t="n">
-        <v>5979277.138381172</v>
+        <v>2267307.723960656</v>
       </c>
       <c r="B263" t="s">
         <v>14</v>
@@ -5135,7 +5135,7 @@
     </row>
     <row r="264" spans="1:5">
       <c r="A264" t="n">
-        <v>338061.6178753599</v>
+        <v>151313.1390283999</v>
       </c>
       <c r="B264" t="s">
         <v>21</v>
@@ -5150,7 +5150,7 @@
     </row>
     <row r="265" spans="1:5">
       <c r="A265" t="n">
-        <v>472723.1340365013</v>
+        <v>235832.6611080666</v>
       </c>
       <c r="B265" t="s">
         <v>16</v>
@@ -5165,7 +5165,7 @@
     </row>
     <row r="266" spans="1:5">
       <c r="A266" t="n">
-        <v>7459582.134813053</v>
+        <v>3080983.469449091</v>
       </c>
       <c r="B266" t="s">
         <v>10</v>
@@ -5180,7 +5180,7 @@
     </row>
     <row r="267" spans="1:5">
       <c r="A267" t="n">
-        <v>15977108.85277729</v>
+        <v>7276299.300801496</v>
       </c>
       <c r="B267" t="s">
         <v>38</v>
@@ -5195,7 +5195,7 @@
     </row>
     <row r="268" spans="1:5">
       <c r="A268" t="n">
-        <v>41015227.27718226</v>
+        <v>18670865.11195</v>
       </c>
       <c r="B268" t="s">
         <v>26</v>
@@ -5210,7 +5210,7 @@
     </row>
     <row r="269" spans="1:5">
       <c r="A269" t="n">
-        <v>108469.0505378405</v>
+        <v>96895.34662586667</v>
       </c>
       <c r="B269" t="s">
         <v>12</v>
@@ -5225,7 +5225,7 @@
     </row>
     <row r="270" spans="1:5">
       <c r="A270" t="n">
-        <v>697567.8961967728</v>
+        <v>414761.1476699999</v>
       </c>
       <c r="B270" t="s">
         <v>18</v>
@@ -5240,7 +5240,7 @@
     </row>
     <row r="271" spans="1:5">
       <c r="A271" t="n">
-        <v>1650832.225590041</v>
+        <v>771583.3100430039</v>
       </c>
       <c r="B271" t="s">
         <v>29</v>
@@ -5255,7 +5255,7 @@
     </row>
     <row r="272" spans="1:5">
       <c r="A272" t="n">
-        <v>744014.754027862</v>
+        <v>313890.3687001493</v>
       </c>
       <c r="B272" t="s">
         <v>32</v>
@@ -5270,7 +5270,7 @@
     </row>
     <row r="273" spans="1:5">
       <c r="A273" t="n">
-        <v>744091.0543975284</v>
+        <v>519664.2895199998</v>
       </c>
       <c r="B273" t="s">
         <v>24</v>
@@ -5285,7 +5285,7 @@
     </row>
     <row r="274" spans="1:5">
       <c r="A274" t="n">
-        <v>926288.9728504742</v>
+        <v>558008.8446675</v>
       </c>
       <c r="B274" t="s">
         <v>30</v>
@@ -5300,7 +5300,7 @@
     </row>
     <row r="275" spans="1:5">
       <c r="A275" t="n">
-        <v>263222.0981740615</v>
+        <v>167476.3366272677</v>
       </c>
       <c r="B275" t="s">
         <v>9</v>
@@ -5315,7 +5315,7 @@
     </row>
     <row r="276" spans="1:5">
       <c r="A276" t="n">
-        <v>5245429.56108206</v>
+        <v>2140759.647799437</v>
       </c>
       <c r="B276" t="s">
         <v>31</v>
@@ -5330,7 +5330,7 @@
     </row>
     <row r="277" spans="1:5">
       <c r="A277" t="n">
-        <v>1606876.827699043</v>
+        <v>722730.0476822234</v>
       </c>
       <c r="B277" t="s">
         <v>19</v>
@@ -5345,7 +5345,7 @@
     </row>
     <row r="278" spans="1:5">
       <c r="A278" t="n">
-        <v>7866186.637952652</v>
+        <v>2360566.866950211</v>
       </c>
       <c r="B278" t="s">
         <v>17</v>
@@ -5360,7 +5360,7 @@
     </row>
     <row r="279" spans="1:5">
       <c r="A279" t="n">
-        <v>817040.0908149014</v>
+        <v>259355.1430658761</v>
       </c>
       <c r="B279" t="s">
         <v>20</v>
@@ -5375,7 +5375,7 @@
     </row>
     <row r="280" spans="1:5">
       <c r="A280" t="n">
-        <v>5079024.049112274</v>
+        <v>1984898.369236777</v>
       </c>
       <c r="B280" t="s">
         <v>15</v>
@@ -5390,7 +5390,7 @@
     </row>
     <row r="281" spans="1:5">
       <c r="A281" t="n">
-        <v>5787100.119057392</v>
+        <v>1851373.981142008</v>
       </c>
       <c r="B281" t="s">
         <v>27</v>
@@ -5405,7 +5405,7 @@
     </row>
     <row r="282" spans="1:5">
       <c r="A282" t="n">
-        <v>148618.2550130614</v>
+        <v>86757.39937499999</v>
       </c>
       <c r="B282" t="s">
         <v>25</v>
@@ -5420,7 +5420,7 @@
     </row>
     <row r="283" spans="1:5">
       <c r="A283" t="n">
-        <v>478718.5561037704</v>
+        <v>579472.8139599999</v>
       </c>
       <c r="B283" t="s">
         <v>37</v>
@@ -5435,7 +5435,7 @@
     </row>
     <row r="284" spans="1:5">
       <c r="A284" t="n">
-        <v>485025.3420888078</v>
+        <v>291621.7207783903</v>
       </c>
       <c r="B284" t="s">
         <v>11</v>
@@ -5450,7 +5450,7 @@
     </row>
     <row r="285" spans="1:5">
       <c r="A285" t="n">
-        <v>566047.1781581114</v>
+        <v>339632.704</v>
       </c>
       <c r="B285" t="s">
         <v>28</v>
@@ -5465,7 +5465,7 @@
     </row>
     <row r="286" spans="1:5">
       <c r="A286" t="n">
-        <v>482485.6208382372</v>
+        <v>252779.12419</v>
       </c>
       <c r="B286" t="s">
         <v>13</v>
@@ -5480,7 +5480,7 @@
     </row>
     <row r="287" spans="1:5">
       <c r="A287" t="n">
-        <v>773637.4205149174</v>
+        <v>456703.1426871222</v>
       </c>
       <c r="B287" t="s">
         <v>22</v>
@@ -5495,7 +5495,7 @@
     </row>
     <row r="288" spans="1:5">
       <c r="A288" t="n">
-        <v>2800394.332852282</v>
+        <v>741984.7203741666</v>
       </c>
       <c r="B288" t="s">
         <v>33</v>
@@ -5510,7 +5510,7 @@
     </row>
     <row r="289" spans="1:5">
       <c r="A289" t="n">
-        <v>11152.98150894179</v>
+        <v>7132.712044</v>
       </c>
       <c r="B289" t="s">
         <v>23</v>
@@ -5525,7 +5525,7 @@
     </row>
     <row r="290" spans="1:5">
       <c r="A290" t="n">
-        <v>5979277.138381172</v>
+        <v>2267307.723960656</v>
       </c>
       <c r="B290" t="s">
         <v>14</v>
@@ -5540,7 +5540,7 @@
     </row>
     <row r="291" spans="1:5">
       <c r="A291" t="n">
-        <v>338061.6178753599</v>
+        <v>151313.1390283999</v>
       </c>
       <c r="B291" t="s">
         <v>21</v>
@@ -5555,7 +5555,7 @@
     </row>
     <row r="292" spans="1:5">
       <c r="A292" t="n">
-        <v>472723.1340365013</v>
+        <v>235832.6611080666</v>
       </c>
       <c r="B292" t="s">
         <v>16</v>
@@ -5570,7 +5570,7 @@
     </row>
     <row r="293" spans="1:5">
       <c r="A293" t="n">
-        <v>7459582.134813053</v>
+        <v>3080983.469449091</v>
       </c>
       <c r="B293" t="s">
         <v>10</v>
@@ -5585,7 +5585,7 @@
     </row>
     <row r="294" spans="1:5">
       <c r="A294" t="n">
-        <v>15977108.85277729</v>
+        <v>7276299.300801496</v>
       </c>
       <c r="B294" t="s">
         <v>38</v>
@@ -5600,7 +5600,7 @@
     </row>
     <row r="295" spans="1:5">
       <c r="A295" t="n">
-        <v>41015227.27718226</v>
+        <v>18670865.11195</v>
       </c>
       <c r="B295" t="s">
         <v>26</v>
@@ -5615,7 +5615,7 @@
     </row>
     <row r="296" spans="1:5">
       <c r="A296" t="n">
-        <v>108469.0505378405</v>
+        <v>96895.34662586667</v>
       </c>
       <c r="B296" t="s">
         <v>12</v>
@@ -5630,7 +5630,7 @@
     </row>
     <row r="297" spans="1:5">
       <c r="A297" t="n">
-        <v>697567.8961967728</v>
+        <v>414761.1476699999</v>
       </c>
       <c r="B297" t="s">
         <v>18</v>
@@ -5645,7 +5645,7 @@
     </row>
     <row r="298" spans="1:5">
       <c r="A298" t="n">
-        <v>1650832.225590041</v>
+        <v>771583.3100430039</v>
       </c>
       <c r="B298" t="s">
         <v>29</v>
@@ -5660,7 +5660,7 @@
     </row>
     <row r="299" spans="1:5">
       <c r="A299" t="n">
-        <v>744014.754027862</v>
+        <v>313890.3687001493</v>
       </c>
       <c r="B299" t="s">
         <v>32</v>
@@ -5675,7 +5675,7 @@
     </row>
     <row r="300" spans="1:5">
       <c r="A300" t="n">
-        <v>744091.0543975284</v>
+        <v>519664.2895199998</v>
       </c>
       <c r="B300" t="s">
         <v>24</v>
@@ -5690,7 +5690,7 @@
     </row>
     <row r="301" spans="1:5">
       <c r="A301" t="n">
-        <v>926288.9728504742</v>
+        <v>558008.8446675</v>
       </c>
       <c r="B301" t="s">
         <v>30</v>
@@ -5705,7 +5705,7 @@
     </row>
     <row r="302" spans="1:5">
       <c r="A302" t="n">
-        <v>263222.0981740615</v>
+        <v>167476.3366272677</v>
       </c>
       <c r="B302" t="s">
         <v>9</v>
@@ -5720,7 +5720,7 @@
     </row>
     <row r="303" spans="1:5">
       <c r="A303" t="n">
-        <v>5245429.56108206</v>
+        <v>2140759.647799437</v>
       </c>
       <c r="B303" t="s">
         <v>31</v>
@@ -5735,7 +5735,7 @@
     </row>
     <row r="304" spans="1:5">
       <c r="A304" t="n">
-        <v>1606876.827699043</v>
+        <v>722730.0476822234</v>
       </c>
       <c r="B304" t="s">
         <v>19</v>
@@ -5750,7 +5750,7 @@
     </row>
     <row r="305" spans="1:5">
       <c r="A305" t="n">
-        <v>7866186.637952652</v>
+        <v>2360566.866950211</v>
       </c>
       <c r="B305" t="s">
         <v>17</v>
@@ -5765,7 +5765,7 @@
     </row>
     <row r="306" spans="1:5">
       <c r="A306" t="n">
-        <v>817040.0908149014</v>
+        <v>259355.1430658761</v>
       </c>
       <c r="B306" t="s">
         <v>20</v>
@@ -5780,7 +5780,7 @@
     </row>
     <row r="307" spans="1:5">
       <c r="A307" t="n">
-        <v>5079024.049112274</v>
+        <v>1984898.369236777</v>
       </c>
       <c r="B307" t="s">
         <v>15</v>
@@ -5795,7 +5795,7 @@
     </row>
     <row r="308" spans="1:5">
       <c r="A308" t="n">
-        <v>5787100.119057392</v>
+        <v>1851373.981142008</v>
       </c>
       <c r="B308" t="s">
         <v>27</v>
@@ -5810,7 +5810,7 @@
     </row>
     <row r="309" spans="1:5">
       <c r="A309" t="n">
-        <v>148618.2550130614</v>
+        <v>86757.39937499999</v>
       </c>
       <c r="B309" t="s">
         <v>25</v>
@@ -5825,7 +5825,7 @@
     </row>
     <row r="310" spans="1:5">
       <c r="A310" t="n">
-        <v>478718.5561037704</v>
+        <v>579472.8139599999</v>
       </c>
       <c r="B310" t="s">
         <v>37</v>
@@ -5840,7 +5840,7 @@
     </row>
     <row r="311" spans="1:5">
       <c r="A311" t="n">
-        <v>485025.3420888078</v>
+        <v>291621.7207783903</v>
       </c>
       <c r="B311" t="s">
         <v>11</v>
@@ -5855,7 +5855,7 @@
     </row>
     <row r="312" spans="1:5">
       <c r="A312" t="n">
-        <v>566047.1781581114</v>
+        <v>339632.704</v>
       </c>
       <c r="B312" t="s">
         <v>28</v>
@@ -5870,7 +5870,7 @@
     </row>
     <row r="313" spans="1:5">
       <c r="A313" t="n">
-        <v>482485.6208382372</v>
+        <v>252779.12419</v>
       </c>
       <c r="B313" t="s">
         <v>13</v>
@@ -5885,7 +5885,7 @@
     </row>
     <row r="314" spans="1:5">
       <c r="A314" t="n">
-        <v>773637.4205149174</v>
+        <v>456703.1426871222</v>
       </c>
       <c r="B314" t="s">
         <v>22</v>
@@ -5900,7 +5900,7 @@
     </row>
     <row r="315" spans="1:5">
       <c r="A315" t="n">
-        <v>2800394.332852282</v>
+        <v>741984.7203741666</v>
       </c>
       <c r="B315" t="s">
         <v>33</v>
@@ -5915,7 +5915,7 @@
     </row>
     <row r="316" spans="1:5">
       <c r="A316" t="n">
-        <v>11152.98150894179</v>
+        <v>7132.712044</v>
       </c>
       <c r="B316" t="s">
         <v>23</v>
@@ -5930,7 +5930,7 @@
     </row>
     <row r="317" spans="1:5">
       <c r="A317" t="n">
-        <v>5979277.138381172</v>
+        <v>2267307.723960656</v>
       </c>
       <c r="B317" t="s">
         <v>14</v>
@@ -5945,7 +5945,7 @@
     </row>
     <row r="318" spans="1:5">
       <c r="A318" t="n">
-        <v>338061.6178753599</v>
+        <v>151313.1390283999</v>
       </c>
       <c r="B318" t="s">
         <v>21</v>
@@ -5960,7 +5960,7 @@
     </row>
     <row r="319" spans="1:5">
       <c r="A319" t="n">
-        <v>472723.1340365013</v>
+        <v>235832.6611080666</v>
       </c>
       <c r="B319" t="s">
         <v>16</v>
@@ -5975,7 +5975,7 @@
     </row>
     <row r="320" spans="1:5">
       <c r="A320" t="n">
-        <v>7459582.134813053</v>
+        <v>3080983.469449091</v>
       </c>
       <c r="B320" t="s">
         <v>10</v>
@@ -5990,7 +5990,7 @@
     </row>
     <row r="321" spans="1:5">
       <c r="A321" t="n">
-        <v>15977108.85277729</v>
+        <v>7276299.300801496</v>
       </c>
       <c r="B321" t="s">
         <v>38</v>
@@ -6005,7 +6005,7 @@
     </row>
     <row r="322" spans="1:5">
       <c r="A322" t="n">
-        <v>41015227.27718226</v>
+        <v>18670865.11195</v>
       </c>
       <c r="B322" t="s">
         <v>26</v>
@@ -6020,7 +6020,7 @@
     </row>
     <row r="323" spans="1:5">
       <c r="A323" t="n">
-        <v>108469.0505378405</v>
+        <v>96895.34662586667</v>
       </c>
       <c r="B323" t="s">
         <v>12</v>
@@ -6035,7 +6035,7 @@
     </row>
     <row r="324" spans="1:5">
       <c r="A324" t="n">
-        <v>697567.8961967728</v>
+        <v>414761.1476699999</v>
       </c>
       <c r="B324" t="s">
         <v>18</v>
@@ -6050,7 +6050,7 @@
     </row>
     <row r="325" spans="1:5">
       <c r="A325" t="n">
-        <v>1650832.225590041</v>
+        <v>771583.3100430039</v>
       </c>
       <c r="B325" t="s">
         <v>29</v>
@@ -6423,7 +6423,7 @@
         <v>62</v>
       </c>
       <c r="F19" t="n">
-        <v>2650397.858949375</v>
+        <v>1072452.642158037</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -6479,7 +6479,7 @@
         <v>62</v>
       </c>
       <c r="F22" t="n">
-        <v>1864014.659775881</v>
+        <v>1411456.940202111</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -6535,7 +6535,7 @@
         <v>62</v>
       </c>
       <c r="F25" t="n">
-        <v>2322089.370711096</v>
+        <v>1462357.118858854</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -6591,7 +6591,7 @@
         <v>62</v>
       </c>
       <c r="F28" t="n">
-        <v>1250837.277676005</v>
+        <v>795851.6224961239</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -6647,7 +6647,7 @@
         <v>62</v>
       </c>
       <c r="F31" t="n">
-        <v>17968554.0286639</v>
+        <v>6696547.248886553</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -6703,7 +6703,7 @@
         <v>62</v>
       </c>
       <c r="F34" t="n">
-        <v>2162834.626723631</v>
+        <v>1048018.263879973</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -6759,7 +6759,7 @@
         <v>76</v>
       </c>
       <c r="F37" t="n">
-        <v>22351371.56424477</v>
+        <v>6627898.726514986</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -6815,7 +6815,7 @@
         <v>62</v>
       </c>
       <c r="F40" t="n">
-        <v>2347967.5145134</v>
+        <v>789852.4465263527</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -6871,7 +6871,7 @@
         <v>62</v>
       </c>
       <c r="F43" t="n">
-        <v>6650356.770619426</v>
+        <v>1999463.044848671</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -6927,7 +6927,7 @@
         <v>62</v>
       </c>
       <c r="F46" t="n">
-        <v>21690856.32730725</v>
+        <v>6837256.420748785</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -6983,7 +6983,7 @@
         <v>62</v>
       </c>
       <c r="F49" t="n">
-        <v>442104.632177525</v>
+        <v>241846.8129173583</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -7039,7 +7039,7 @@
         <v>62</v>
       </c>
       <c r="F52" t="n">
-        <v>238081.4377230832</v>
+        <v>1502011.271028037</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -7095,7 +7095,7 @@
         <v>62</v>
       </c>
       <c r="F55" t="n">
-        <v>1174338.404586635</v>
+        <v>680255.3235916186</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -7151,7 +7151,7 @@
         <v>62</v>
       </c>
       <c r="F58" t="n">
-        <v>1813746.605624468</v>
+        <v>1056781.136928749</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -7207,7 +7207,7 @@
         <v>62</v>
       </c>
       <c r="F61" t="n">
-        <v>683258.9758554291</v>
+        <v>413885.6095185739</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -7263,7 +7263,7 @@
         <v>62</v>
       </c>
       <c r="F64" t="n">
-        <v>2248875.892573822</v>
+        <v>826058.8822940608</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -7319,7 +7319,7 @@
         <v>62</v>
       </c>
       <c r="F67" t="n">
-        <v>6799870.648441602</v>
+        <v>2410959.383380356</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -7375,7 +7375,7 @@
         <v>62</v>
       </c>
       <c r="F70" t="n">
-        <v>12401.80083956797</v>
+        <v>6791.468675096205</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -7431,7 +7431,7 @@
         <v>76</v>
       </c>
       <c r="F73" t="n">
-        <v>13535401.45551117</v>
+        <v>4980545.731379519</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -7487,7 +7487,7 @@
         <v>62</v>
       </c>
       <c r="F76" t="n">
-        <v>1524992.128256451</v>
+        <v>706512.1879831771</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -7543,7 +7543,7 @@
         <v>62</v>
       </c>
       <c r="F79" t="n">
-        <v>927084.230537987</v>
+        <v>480474.4460712131</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -7599,7 +7599,7 @@
         <v>62</v>
       </c>
       <c r="F82" t="n">
-        <v>28912627.20325794</v>
+        <v>11961896.658647</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -7655,7 +7655,7 @@
         <v>62</v>
       </c>
       <c r="F85" t="n">
-        <v>52029174.95458849</v>
+        <v>22781030.56227674</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -7711,7 +7711,7 @@
         <v>111</v>
       </c>
       <c r="F88" t="n">
-        <v>147000597.678739</v>
+        <v>68095912.49927844</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -7767,7 +7767,7 @@
         <v>62</v>
       </c>
       <c r="F91" t="n">
-        <v>110219.5027907136</v>
+        <v>98599.71675155149</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -7823,7 +7823,7 @@
         <v>62</v>
       </c>
       <c r="F94" t="n">
-        <v>3092959.66428262</v>
+        <v>1787273.152273818</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -7879,7 +7879,7 @@
         <v>62</v>
       </c>
       <c r="F97" t="n">
-        <v>3049181.578682729</v>
+        <v>1505506.911739092</v>
       </c>
     </row>
     <row r="98" spans="1:6">
